--- a/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
   <si>
     <t>Result</t>
   </si>
@@ -136,6 +136,51 @@
   </si>
   <si>
     <t>Wed Oct 27 17:09:13 EDT 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 01 10:49:19 EDT 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 01 10:49:29 EDT 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 01 10:49:39 EDT 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 05 18:17:30 EDT 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 05 18:17:41 EDT 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 05 18:17:51 EDT 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 12:16:51 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 12:17:01 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 12:17:11 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:17:00 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:17:10 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:17:20 EST 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 19 10:49:40 EST 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 19 10:49:51 EST 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 19 10:50:01 EST 2021</t>
   </si>
 </sst>
 </file>
@@ -540,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -554,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -568,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
